--- a/mySystem/mySystem/xls/PTV/SOP-MFG-412-R01A 底封机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-412-R01A 底封机运行记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QMS File-20160301\SOP-MFG-3 生产岗位\306, 2D&amp;3D生产记录20160825\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitpro\mitcpro-master\mitcpro\mySystem\mySystem\xls\PTV\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -528,76 +528,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -675,130 +605,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>合格品数量：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只
-不良品数量：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>复核人：
-日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>底封机运行记录</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -826,6 +632,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>膜或袋体代码：</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -858,7 +668,197 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>膜或袋体代码：</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生产日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>合格品数量：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只
+不良品数量：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复核人：
+日期：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2016</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1897,11 +1897,68 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1909,9 +1966,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1921,59 +1975,86 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1984,94 +2065,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="49" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2397,13 +2397,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2415,67 +2415,67 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="A2" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="72" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="72" t="s">
+      <c r="G3" s="68"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="75"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="E4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="71"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="65"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
       <c r="D5" s="6"/>
       <c r="E5" s="18"/>
       <c r="F5" s="5"/>
@@ -2487,7 +2487,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2507,7 +2507,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="10" t="s">
         <v>2</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="10" t="s">
         <v>3</v>
       </c>
@@ -2561,11 +2561,11 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="66"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
@@ -2577,7 +2577,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="59" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2597,7 +2597,7 @@
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="L12" s="6"/>
     </row>
     <row r="13" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="L13" s="6"/>
     </row>
     <row r="14" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A14" s="53"/>
+      <c r="A14" s="56"/>
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
@@ -2651,11 +2651,11 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="66"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21"/>
       <c r="F15" s="13"/>
@@ -2667,7 +2667,7 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="59" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2687,7 +2687,7 @@
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="10" t="s">
         <v>1</v>
       </c>
@@ -2705,7 +2705,7 @@
       <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="10" t="s">
         <v>2</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="10" t="s">
         <v>3</v>
       </c>
@@ -2741,11 +2741,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="74"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
@@ -2757,11 +2757,11 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2773,11 +2773,11 @@
       <c r="L21" s="17"/>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2789,11 +2789,11 @@
       <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" ht="27.75" customHeight="1">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2805,11 +2805,11 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A24" s="63" t="s">
+      <c r="A24" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2821,25 +2821,33 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="57" t="s">
+      <c r="J25" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="59"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A15"/>
@@ -2852,14 +2860,6 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2873,13 +2873,13 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B4" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="5.25" style="29" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="29" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="29" customWidth="1"/>
     <col min="3" max="3" width="7.375" style="29" customWidth="1"/>
     <col min="4" max="5" width="6.5" style="29" customWidth="1"/>
     <col min="6" max="6" width="6.25" style="29" customWidth="1"/>
@@ -2899,14 +2899,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -2922,104 +2922,104 @@
       <c r="S1" s="28"/>
       <c r="T1" s="28"/>
       <c r="U1" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A2" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
+      <c r="A2" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
+      <c r="S2" s="107"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1">
       <c r="A3" s="108" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B3" s="108"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
       <c r="E3" s="108"/>
-      <c r="F3" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110" t="s">
+      <c r="F3" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="105" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="107"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1">
       <c r="A4" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="100" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" s="102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="103"/>
       <c r="E4" s="103"/>
       <c r="F4" s="103"/>
       <c r="G4" s="104"/>
       <c r="H4" s="102" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="103"/>
       <c r="K4" s="103"/>
       <c r="L4" s="104"/>
       <c r="M4" s="84" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N4" s="85"/>
       <c r="O4" s="85"/>
       <c r="P4" s="85"/>
       <c r="Q4" s="86"/>
       <c r="R4" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="T4" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="90" t="s">
+      <c r="U4" s="93" t="s">
         <v>33</v>
-      </c>
-      <c r="U4" s="93" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30.75" customHeight="1">
@@ -3125,7 +3125,7 @@
     <row r="7" spans="1:21" ht="24.75" customHeight="1">
       <c r="A7" s="99"/>
       <c r="B7" s="30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="20" spans="1:21" ht="80.25" customHeight="1">
       <c r="A20" s="81" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="81"/>
       <c r="C20" s="81"/>
@@ -3463,14 +3463,14 @@
       <c r="K20" s="81"/>
       <c r="L20" s="81"/>
       <c r="M20" s="82" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N20" s="82"/>
       <c r="O20" s="82"/>
       <c r="P20" s="82"/>
       <c r="Q20" s="82"/>
       <c r="R20" s="83" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S20" s="83"/>
       <c r="T20" s="83"/>
@@ -3481,6 +3481,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="F3:L3"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="R20:U20"/>
@@ -3496,11 +3501,6 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="F3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/mySystem/mySystem/xls/PTV/SOP-MFG-412-R01A 底封机运行记录.xlsx
+++ b/mySystem/mySystem/xls/PTV/SOP-MFG-412-R01A 底封机运行记录.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
   <si>
     <t>WELDING PRESSURE</t>
   </si>
@@ -664,76 +664,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">        </t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生产日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  2016</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1906,21 +1836,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1930,18 +1890,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1960,29 +1914,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2055,24 +2003,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2397,13 +2327,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2415,67 +2345,67 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="67" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="67" t="s">
+      <c r="G3" s="76"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="70"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="78"/>
     </row>
     <row r="4" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="65"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="74"/>
     </row>
     <row r="5" spans="1:12" ht="24.75" customHeight="1">
       <c r="A5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
       <c r="D5" s="6"/>
       <c r="E5" s="18"/>
       <c r="F5" s="5"/>
@@ -2487,7 +2417,7 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="68" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2561,11 +2491,11 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="14"/>
       <c r="E10" s="21"/>
       <c r="F10" s="13"/>
@@ -2577,7 +2507,7 @@
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="55" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2651,11 +2581,11 @@
       <c r="L14" s="6"/>
     </row>
     <row r="15" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="14"/>
       <c r="E15" s="21"/>
       <c r="F15" s="13"/>
@@ -2667,7 +2597,7 @@
       <c r="L15" s="14"/>
     </row>
     <row r="16" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="55" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="15" t="s">
@@ -2741,11 +2671,11 @@
       <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="74"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="23"/>
       <c r="E20" s="24"/>
       <c r="F20" s="25"/>
@@ -2757,11 +2687,11 @@
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2776,8 +2706,8 @@
       <c r="A22" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
@@ -2792,8 +2722,8 @@
       <c r="A23" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
@@ -2805,11 +2735,11 @@
       <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -2821,33 +2751,25 @@
       <c r="L24" s="14"/>
     </row>
     <row r="25" spans="1:12" ht="108" customHeight="1" thickBot="1">
-      <c r="A25" s="78" t="s">
+      <c r="A25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
       <c r="I25" s="27"/>
-      <c r="J25" s="75" t="s">
+      <c r="J25" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="K25" s="76"/>
-      <c r="L25" s="77"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A16:A20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A25:H25"/>
-    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="A11:A15"/>
@@ -2860,6 +2782,14 @@
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="A24:C24"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2873,7 +2803,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B6"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2899,14 +2829,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="28"/>
       <c r="H1" s="28"/>
       <c r="I1" s="28"/>
@@ -2926,105 +2856,103 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="39.75" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
-      <c r="S2" s="107"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="83"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
     </row>
     <row r="3" spans="1:21" ht="32.25" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="110" t="s">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="109" t="s">
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="52" t="s">
-        <v>44</v>
-      </c>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="53"/>
       <c r="T3" s="53"/>
       <c r="U3" s="54"/>
     </row>
     <row r="4" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="106" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="102" t="s">
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="103"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="84" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="87" t="s">
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="91"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="90" t="s">
+      <c r="T4" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="93" t="s">
+      <c r="U4" s="99" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="30.75" customHeight="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="101"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="50" t="s">
         <v>0</v>
       </c>
@@ -3037,7 +2965,7 @@
       <c r="F5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="96" t="s">
+      <c r="G5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -3052,7 +2980,7 @@
       <c r="K5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="96" t="s">
+      <c r="L5" s="102" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="50" t="s">
@@ -3067,17 +2995,17 @@
       <c r="P5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="96" t="s">
+      <c r="Q5" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="88"/>
-      <c r="S5" s="91"/>
-      <c r="T5" s="91"/>
-      <c r="U5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="100"/>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="98"/>
-      <c r="B6" s="101"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3090,7 +3018,7 @@
       <c r="F6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="96"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3103,7 +3031,7 @@
       <c r="K6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="96"/>
+      <c r="L6" s="102"/>
       <c r="M6" s="50" t="s">
         <v>5</v>
       </c>
@@ -3116,14 +3044,14 @@
       <c r="P6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="91"/>
-      <c r="T6" s="91"/>
-      <c r="U6" s="94"/>
+      <c r="Q6" s="102"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97"/>
+      <c r="U6" s="100"/>
     </row>
     <row r="7" spans="1:21" ht="24.75" customHeight="1">
-      <c r="A7" s="99"/>
+      <c r="A7" s="105"/>
       <c r="B7" s="30" t="s">
         <v>34</v>
       </c>
@@ -3142,10 +3070,10 @@
       <c r="O7" s="32"/>
       <c r="P7" s="32"/>
       <c r="Q7" s="33"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="92"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="101"/>
     </row>
     <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="34">
@@ -3448,44 +3376,39 @@
       <c r="U19" s="48"/>
     </row>
     <row r="20" spans="1:21" ht="80.25" customHeight="1">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="82" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="N20" s="88"/>
+      <c r="O20" s="88"/>
+      <c r="P20" s="88"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="83" t="s">
-        <v>46</v>
-      </c>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
     </row>
     <row r="21" spans="1:21">
       <c r="S21" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:U2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="F3:L3"/>
     <mergeCell ref="A20:L20"/>
     <mergeCell ref="M20:Q20"/>
     <mergeCell ref="R20:U20"/>
@@ -3501,6 +3424,11 @@
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="H4:L4"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:U2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="F3:L3"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
